--- a/biology/Médecine/Direction_générale_de_l'Offre_de_soins/Direction_générale_de_l'Offre_de_soins.xlsx
+++ b/biology/Médecine/Direction_générale_de_l'Offre_de_soins/Direction_générale_de_l'Offre_de_soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Offre_de_soins</t>
+          <t>Direction_générale_de_l'Offre_de_soins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La direction générale de l'Offre de soins (DGOS) est une direction générale du ministère de la Santé français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Offre_de_soins</t>
+          <t>Direction_générale_de_l'Offre_de_soins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Noms successifs de la direction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 mai 1960 : Centre technique de l'équipement sanitaire et social[1]
-28 mars 1967 : Direction de l'Équipement social[2] et 6 juillet 1966 : Service des établissements[3]
-13 novembre 1970 : Direction des Hôpitaux[4]
-25 juillet 1980 : Direction générale de la Santé et des Hôpitaux[5]
-10 novembre 1981 : Direction des Hôpitaux[6]
-21 juillet 2000 : Direction de l'Hospitalisation et de l'Organisation des soins (DHOS)[7],[8],[9]
-15 mars 2010 : Direction générale de l'Offre de soins (DGOS)[10],[11]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 mai 1960 : Centre technique de l'équipement sanitaire et social
+28 mars 1967 : Direction de l'Équipement social et 6 juillet 1966 : Service des établissements
+13 novembre 1970 : Direction des Hôpitaux
+25 juillet 1980 : Direction générale de la Santé et des Hôpitaux
+10 novembre 1981 : Direction des Hôpitaux
+21 juillet 2000 : Direction de l'Hospitalisation et de l'Organisation des soins (DHOS)
+15 mars 2010 : Direction générale de l'Offre de soins (DGOS),</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Offre_de_soins</t>
+          <t>Direction_générale_de_l'Offre_de_soins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a plusieurs missions, citées à l'article D.1421-2 du Code de la santé publique[12], notamment :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a plusieurs missions, citées à l'article D.1421-2 du Code de la santé publique, notamment :
 assurer la qualité des soins, leur continuité et la proximité des soins ;
 organiser l'offre de soins en collaboration avec la direction générale de la Santé, la direction générale de l'Action sociale,  et la direction de la Sécurité sociale ;
 Elle assure le respect des droits des usagers de l'offre de soins.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Offre_de_soins</t>
+          <t>Direction_générale_de_l'Offre_de_soins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'organisation de la direction est fixée par l'arrêté du 26 mars 2024[13]. Elle comprend : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'organisation de la direction est fixée par l'arrêté du 26 mars 2024. Elle comprend : 
 la sous-direction de l'accès aux soins et du premier recours ;
 la sous-direction de la prise en charge hospitalière et des parcours ville-hôpital ;
 la sous-direction du financement et de la performance du système de santé ;
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Offre_de_soins</t>
+          <t>Direction_générale_de_l'Offre_de_soins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,32 +641,34 @@
           <t>Directeurs successifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Directeurs des Hôpitaux :
-1970-1976 : Jacques Baudouin[14]
-1976-1980 : Jacques Guillot[15]
+1970-1976 : Jacques Baudouin
+1976-1980 : Jacques Guillot
 Directeurs généraux de la Santé et des Hôpitaux :
-1980-1981 : Jean Choussat[16]
+1980-1981 : Jean Choussat
 Directeurs des Hôpitaux :
-1981-1986 : Jean de Kervasdoué[17]
-1986-1989 : François Delafosse[18]
-1989-1995 : Gérard Vincent[19]
-1995-1998 : Claire Bazy-Malaurie[20]
-1998-2000 : Édouard Couty[21]
+1981-1986 : Jean de Kervasdoué
+1986-1989 : François Delafosse
+1989-1995 : Gérard Vincent
+1995-1998 : Claire Bazy-Malaurie
+1998-2000 : Édouard Couty
 Directeurs de l'Hospitalisation et de l'Organisation des soins :
-2000-2005 : Édouard Couty[22]
-2005-2006 : Jean Castex[23]
-2006-2010 : Annie Podeur[24]
+2000-2005 : Édouard Couty
+2005-2006 : Jean Castex
+2006-2010 : Annie Podeur
 Directeurs généraux de l'Offre de soins :
-2010-2012 : Annie Podeur[25]
-mars-septembre 2012 : François-Xavier Selleret[26]
-octobre 2012 : Jean Debeaupuis[27]
-avril 2016 : Anne-Marie Armanteras de Saxcé[28]
-juin 2017 : Cécile Courrèges[29]
-septembre 2019 : Katia Julienne[30]
-avril 2022 : Cécile Lambert (intérim)[31]
-novembre 2022 : Marie Daudé[32]</t>
+2010-2012 : Annie Podeur
+mars-septembre 2012 : François-Xavier Selleret
+octobre 2012 : Jean Debeaupuis
+avril 2016 : Anne-Marie Armanteras de Saxcé
+juin 2017 : Cécile Courrèges
+septembre 2019 : Katia Julienne
+avril 2022 : Cécile Lambert (intérim)
+novembre 2022 : Marie Daudé</t>
         </is>
       </c>
     </row>
